--- a/PHARM/MPD/StructureDefinition-ihe-ext-medication-classification.xlsx
+++ b/PHARM/MPD/StructureDefinition-ihe-ext-medication-classification.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0-comment-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-09T00:54:08+02:00</t>
+    <t>2025-05-27T16:37:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
